--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>111.766787176306</v>
+        <v>0.010139</v>
       </c>
       <c r="H2">
-        <v>111.766787176306</v>
+        <v>0.030417</v>
       </c>
       <c r="I2">
-        <v>0.3150865453124422</v>
+        <v>2.776985075152738E-05</v>
       </c>
       <c r="J2">
-        <v>0.3150865453124422</v>
+        <v>2.776985075152737E-05</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>111.766787176306</v>
+        <v>0.010139</v>
       </c>
       <c r="N2">
-        <v>111.766787176306</v>
+        <v>0.030417</v>
       </c>
       <c r="O2">
-        <v>0.3150865453124422</v>
+        <v>2.776985075152738E-05</v>
       </c>
       <c r="P2">
-        <v>0.3150865453124422</v>
+        <v>2.776985075152737E-05</v>
       </c>
       <c r="Q2">
-        <v>12491.81471571368</v>
+        <v>0.000102799321</v>
       </c>
       <c r="R2">
-        <v>12491.81471571368</v>
+        <v>0.000925193889</v>
       </c>
       <c r="S2">
-        <v>0.09927953103692967</v>
+        <v>7.711646107621056E-10</v>
       </c>
       <c r="T2">
-        <v>0.09927953103692967</v>
+        <v>7.711646107621054E-10</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,49 +593,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>111.766787176306</v>
+        <v>0.010139</v>
       </c>
       <c r="H3">
-        <v>111.766787176306</v>
+        <v>0.030417</v>
       </c>
       <c r="I3">
-        <v>0.3150865453124422</v>
+        <v>2.776985075152738E-05</v>
       </c>
       <c r="J3">
-        <v>0.3150865453124422</v>
+        <v>2.776985075152737E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.526232646621</v>
+        <v>119.0584436666667</v>
       </c>
       <c r="N3">
-        <v>117.526232646621</v>
+        <v>357.175331</v>
       </c>
       <c r="O3">
-        <v>0.3313232451586525</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="P3">
-        <v>0.3313232451586525</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="Q3">
-        <v>13135.52943184792</v>
+        <v>1.207133560336334</v>
       </c>
       <c r="R3">
-        <v>13135.52943184792</v>
+        <v>10.864202043027</v>
       </c>
       <c r="S3">
-        <v>0.1043954966987471</v>
+        <v>9.055494463768327E-06</v>
       </c>
       <c r="T3">
-        <v>0.1043954966987471</v>
+        <v>9.055494463768327E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -652,111 +655,111 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>111.766787176306</v>
+        <v>0.010139</v>
       </c>
       <c r="H4">
-        <v>111.766787176306</v>
+        <v>0.030417</v>
       </c>
       <c r="I4">
-        <v>0.3150865453124422</v>
+        <v>2.776985075152738E-05</v>
       </c>
       <c r="J4">
-        <v>0.3150865453124422</v>
+        <v>2.776985075152737E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>125.42471991895</v>
+        <v>119.1221133333333</v>
       </c>
       <c r="N4">
-        <v>125.42471991895</v>
+        <v>357.36634</v>
       </c>
       <c r="O4">
-        <v>0.3535902095289054</v>
+        <v>0.3262652439563266</v>
       </c>
       <c r="P4">
-        <v>0.3535902095289054</v>
+        <v>0.3262652439563266</v>
       </c>
       <c r="Q4">
-        <v>14018.31797782907</v>
+        <v>1.207779107086667</v>
       </c>
       <c r="R4">
-        <v>14018.31797782907</v>
+        <v>10.87001196378</v>
       </c>
       <c r="S4">
-        <v>0.1114115175767654</v>
+        <v>9.06033713007786E-06</v>
       </c>
       <c r="T4">
-        <v>0.1114115175767654</v>
+        <v>9.060337130077859E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>117.526232646621</v>
+        <v>0.010139</v>
       </c>
       <c r="H5">
-        <v>117.526232646621</v>
+        <v>0.030417</v>
       </c>
       <c r="I5">
-        <v>0.3313232451586525</v>
+        <v>2.776985075152738E-05</v>
       </c>
       <c r="J5">
-        <v>0.3313232451586525</v>
+        <v>2.776985075152737E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.766787176306</v>
+        <v>126.917496</v>
       </c>
       <c r="N5">
-        <v>111.766787176306</v>
+        <v>380.752488</v>
       </c>
       <c r="O5">
-        <v>0.3150865453124422</v>
+        <v>0.3476161279887141</v>
       </c>
       <c r="P5">
-        <v>0.3150865453124422</v>
+        <v>0.3476161279887141</v>
       </c>
       <c r="Q5">
-        <v>13135.52943184792</v>
+        <v>1.286816491944</v>
       </c>
       <c r="R5">
-        <v>13135.52943184792</v>
+        <v>11.581348427496</v>
       </c>
       <c r="S5">
-        <v>0.1043954966987471</v>
+        <v>9.653247993070429E-06</v>
       </c>
       <c r="T5">
-        <v>0.1043954966987471</v>
+        <v>9.653247993070426E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -764,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>117.526232646621</v>
+        <v>119.0584436666667</v>
       </c>
       <c r="H6">
-        <v>117.526232646621</v>
+        <v>357.175331</v>
       </c>
       <c r="I6">
-        <v>0.3313232451586525</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="J6">
-        <v>0.3313232451586525</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>117.526232646621</v>
+        <v>0.010139</v>
       </c>
       <c r="N6">
-        <v>117.526232646621</v>
+        <v>0.030417</v>
       </c>
       <c r="O6">
-        <v>0.3313232451586525</v>
+        <v>2.776985075152738E-05</v>
       </c>
       <c r="P6">
-        <v>0.3313232451586525</v>
+        <v>2.776985075152737E-05</v>
       </c>
       <c r="Q6">
-        <v>13812.41536010768</v>
+        <v>1.207133560336334</v>
       </c>
       <c r="R6">
-        <v>13812.41536010768</v>
+        <v>10.864202043027</v>
       </c>
       <c r="S6">
-        <v>0.1097750927824605</v>
+        <v>9.055494463768327E-06</v>
       </c>
       <c r="T6">
-        <v>0.1097750927824605</v>
+        <v>9.055494463768327E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,185 +829,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>117.526232646621</v>
+        <v>119.0584436666667</v>
       </c>
       <c r="H7">
-        <v>117.526232646621</v>
+        <v>357.175331</v>
       </c>
       <c r="I7">
-        <v>0.3313232451586525</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="J7">
-        <v>0.3313232451586525</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.42471991895</v>
+        <v>119.0584436666667</v>
       </c>
       <c r="N7">
-        <v>125.42471991895</v>
+        <v>357.175331</v>
       </c>
       <c r="O7">
-        <v>0.3535902095289054</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="P7">
-        <v>0.3535902095289054</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="Q7">
-        <v>14740.6948128318</v>
+        <v>14174.91300832884</v>
       </c>
       <c r="R7">
-        <v>14740.6948128318</v>
+        <v>127574.2170749596</v>
       </c>
       <c r="S7">
-        <v>0.1171526556774448</v>
+        <v>0.1063352478043568</v>
       </c>
       <c r="T7">
-        <v>0.1171526556774448</v>
+        <v>0.1063352478043568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>125.42471991895</v>
+        <v>119.0584436666667</v>
       </c>
       <c r="H8">
-        <v>125.42471991895</v>
+        <v>357.175331</v>
       </c>
       <c r="I8">
-        <v>0.3535902095289054</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="J8">
-        <v>0.3535902095289054</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>111.766787176306</v>
+        <v>119.1221133333333</v>
       </c>
       <c r="N8">
-        <v>111.766787176306</v>
+        <v>357.36634</v>
       </c>
       <c r="O8">
-        <v>0.3150865453124422</v>
+        <v>0.3262652439563266</v>
       </c>
       <c r="P8">
-        <v>0.3150865453124422</v>
+        <v>0.3262652439563266</v>
       </c>
       <c r="Q8">
-        <v>14018.31797782907</v>
+        <v>14182.49341975095</v>
       </c>
       <c r="R8">
-        <v>14018.31797782907</v>
+        <v>127642.4407777585</v>
       </c>
       <c r="S8">
-        <v>0.1114115175767654</v>
+        <v>0.1063921134039238</v>
       </c>
       <c r="T8">
-        <v>0.1114115175767654</v>
+        <v>0.1063921134039238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>125.42471991895</v>
+        <v>119.0584436666667</v>
       </c>
       <c r="H9">
-        <v>125.42471991895</v>
+        <v>357.175331</v>
       </c>
       <c r="I9">
-        <v>0.3535902095289054</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="J9">
-        <v>0.3535902095289054</v>
+        <v>0.3260908582042078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.526232646621</v>
+        <v>126.917496</v>
       </c>
       <c r="N9">
-        <v>117.526232646621</v>
+        <v>380.752488</v>
       </c>
       <c r="O9">
-        <v>0.3313232451586525</v>
+        <v>0.3476161279887141</v>
       </c>
       <c r="P9">
-        <v>0.3313232451586525</v>
+        <v>0.3476161279887141</v>
       </c>
       <c r="Q9">
-        <v>14740.6948128318</v>
+        <v>15110.59954783039</v>
       </c>
       <c r="R9">
-        <v>14740.6948128318</v>
+        <v>135995.3959304735</v>
       </c>
       <c r="S9">
-        <v>0.1171526556774448</v>
+        <v>0.1133544415014635</v>
       </c>
       <c r="T9">
-        <v>0.1171526556774448</v>
+        <v>0.1133544415014635</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1012,61 +1015,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>119.1221133333333</v>
+      </c>
+      <c r="H10">
+        <v>357.36634</v>
+      </c>
+      <c r="I10">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="J10">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.010139</v>
+      </c>
+      <c r="N10">
+        <v>0.030417</v>
+      </c>
+      <c r="O10">
+        <v>2.776985075152738E-05</v>
+      </c>
+      <c r="P10">
+        <v>2.776985075152737E-05</v>
+      </c>
+      <c r="Q10">
+        <v>1.207779107086667</v>
+      </c>
+      <c r="R10">
+        <v>10.87001196378</v>
+      </c>
+      <c r="S10">
+        <v>9.06033713007786E-06</v>
+      </c>
+      <c r="T10">
+        <v>9.060337130077859E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>119.1221133333333</v>
+      </c>
+      <c r="H11">
+        <v>357.36634</v>
+      </c>
+      <c r="I11">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="J11">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>119.0584436666667</v>
+      </c>
+      <c r="N11">
+        <v>357.175331</v>
+      </c>
+      <c r="O11">
+        <v>0.3260908582042078</v>
+      </c>
+      <c r="P11">
+        <v>0.3260908582042078</v>
+      </c>
+      <c r="Q11">
+        <v>14182.49341975095</v>
+      </c>
+      <c r="R11">
+        <v>127642.4407777585</v>
+      </c>
+      <c r="S11">
+        <v>0.1063921134039238</v>
+      </c>
+      <c r="T11">
+        <v>0.1063921134039238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>119.1221133333333</v>
+      </c>
+      <c r="H12">
+        <v>357.36634</v>
+      </c>
+      <c r="I12">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="J12">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>119.1221133333333</v>
+      </c>
+      <c r="N12">
+        <v>357.36634</v>
+      </c>
+      <c r="O12">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="P12">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="Q12">
+        <v>14190.07788499951</v>
+      </c>
+      <c r="R12">
+        <v>127710.7009649956</v>
+      </c>
+      <c r="S12">
+        <v>0.1064490094138813</v>
+      </c>
+      <c r="T12">
+        <v>0.1064490094138813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>119.1221133333333</v>
+      </c>
+      <c r="H13">
+        <v>357.36634</v>
+      </c>
+      <c r="I13">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="J13">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>126.917496</v>
+      </c>
+      <c r="N13">
+        <v>380.752488</v>
+      </c>
+      <c r="O13">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="P13">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="Q13">
+        <v>15118.68034249488</v>
+      </c>
+      <c r="R13">
+        <v>136068.1230824539</v>
+      </c>
+      <c r="S13">
+        <v>0.1134150608013915</v>
+      </c>
+      <c r="T13">
+        <v>0.1134150608013915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>126.917496</v>
+      </c>
+      <c r="H14">
+        <v>380.752488</v>
+      </c>
+      <c r="I14">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="J14">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.010139</v>
+      </c>
+      <c r="N14">
+        <v>0.030417</v>
+      </c>
+      <c r="O14">
+        <v>2.776985075152738E-05</v>
+      </c>
+      <c r="P14">
+        <v>2.776985075152737E-05</v>
+      </c>
+      <c r="Q14">
+        <v>1.286816491944</v>
+      </c>
+      <c r="R14">
+        <v>11.581348427496</v>
+      </c>
+      <c r="S14">
+        <v>9.653247993070429E-06</v>
+      </c>
+      <c r="T14">
+        <v>9.653247993070426E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>126.917496</v>
+      </c>
+      <c r="H15">
+        <v>380.752488</v>
+      </c>
+      <c r="I15">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="J15">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>119.0584436666667</v>
+      </c>
+      <c r="N15">
+        <v>357.175331</v>
+      </c>
+      <c r="O15">
+        <v>0.3260908582042078</v>
+      </c>
+      <c r="P15">
+        <v>0.3260908582042078</v>
+      </c>
+      <c r="Q15">
+        <v>15110.59954783039</v>
+      </c>
+      <c r="R15">
+        <v>135995.3959304735</v>
+      </c>
+      <c r="S15">
+        <v>0.1133544415014635</v>
+      </c>
+      <c r="T15">
+        <v>0.1133544415014635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>125.42471991895</v>
-      </c>
-      <c r="H10">
-        <v>125.42471991895</v>
-      </c>
-      <c r="I10">
-        <v>0.3535902095289054</v>
-      </c>
-      <c r="J10">
-        <v>0.3535902095289054</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>125.42471991895</v>
-      </c>
-      <c r="N10">
-        <v>125.42471991895</v>
-      </c>
-      <c r="O10">
-        <v>0.3535902095289054</v>
-      </c>
-      <c r="P10">
-        <v>0.3535902095289054</v>
-      </c>
-      <c r="Q10">
-        <v>15731.36036674705</v>
-      </c>
-      <c r="R10">
-        <v>15731.36036674705</v>
-      </c>
-      <c r="S10">
-        <v>0.1250260362746952</v>
-      </c>
-      <c r="T10">
-        <v>0.1250260362746952</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>126.917496</v>
+      </c>
+      <c r="H16">
+        <v>380.752488</v>
+      </c>
+      <c r="I16">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="J16">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>119.1221133333333</v>
+      </c>
+      <c r="N16">
+        <v>357.36634</v>
+      </c>
+      <c r="O16">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="P16">
+        <v>0.3262652439563266</v>
+      </c>
+      <c r="Q16">
+        <v>15118.68034249488</v>
+      </c>
+      <c r="R16">
+        <v>136068.1230824539</v>
+      </c>
+      <c r="S16">
+        <v>0.1134150608013915</v>
+      </c>
+      <c r="T16">
+        <v>0.1134150608013915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>126.917496</v>
+      </c>
+      <c r="H17">
+        <v>380.752488</v>
+      </c>
+      <c r="I17">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="J17">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>126.917496</v>
+      </c>
+      <c r="N17">
+        <v>380.752488</v>
+      </c>
+      <c r="O17">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="P17">
+        <v>0.3476161279887141</v>
+      </c>
+      <c r="Q17">
+        <v>16108.05079091001</v>
+      </c>
+      <c r="R17">
+        <v>144972.4571181901</v>
+      </c>
+      <c r="S17">
+        <v>0.1208369724378661</v>
+      </c>
+      <c r="T17">
+        <v>0.120836972437866</v>
       </c>
     </row>
   </sheetData>
